--- a/contratos/contratos-5-2014.xlsx
+++ b/contratos/contratos-5-2014.xlsx
@@ -733,7 +733,7 @@
     <t>BOGATIC FLAVIO ADOLFO</t>
   </si>
   <si>
-    <t>TRABICHET MARIA, VERGARA ADEL Y OTRA</t>
+    <t>TRABICHET MARIA. VERGARA ADEL Y OTRA</t>
   </si>
   <si>
     <t>CORAZZA DINA Y SCEVOLA ROSA</t>
@@ -754,7 +754,7 @@
     <t>IMEL INGENIERIA Y MATERIALES ELECTRICOS S.R.L.</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
   </si>
   <si>
     <t>LOSADA SANTIAGO ARIEL</t>
@@ -772,10 +772,10 @@
     <t>RADIO MECANO S.A.</t>
   </si>
   <si>
-    <t>RAMIREZ CLAUDIA, RAMIREZ CESAR Y RAMIREZ VERONICA S.H.</t>
-  </si>
-  <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>RAMIREZ CLAUDIA. RAMIREZ CESAR Y RAMIREZ VERONICA SH</t>
+  </si>
+  <si>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>YLUM S.A.</t>
@@ -793,7 +793,7 @@
     <t>A. ROPELATO S.R.L.</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>BURGOS DANIEL RAUL</t>
@@ -874,7 +874,7 @@
     <t>GALLICET OSCAR MARCELO</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>SARJANOVICH ANDRES</t>
@@ -925,7 +925,7 @@
     <t>ORGANIZACION DELASOIE HNOS. S.A.</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>BONNIN MARTIN ANIBAL</t>
@@ -1024,7 +1024,7 @@
     <t>VIVESCAS S.R.L.</t>
   </si>
   <si>
-    <t>FERNANDEZ, MARIO HUGO</t>
+    <t>FERNANDEZ. MARIO HUGO</t>
   </si>
   <si>
     <t>BARDISA EDUARDO SUCESION</t>
@@ -1477,700 +1477,700 @@
     <t>12</t>
   </si>
   <si>
-    <t>2.040,00</t>
-  </si>
-  <si>
-    <t>36.000,00</t>
-  </si>
-  <si>
-    <t>3.919.875,00</t>
-  </si>
-  <si>
-    <t>116.400,00</t>
-  </si>
-  <si>
-    <t>763.860,00</t>
-  </si>
-  <si>
-    <t>162.401,76</t>
-  </si>
-  <si>
-    <t>150.040,00</t>
-  </si>
-  <si>
-    <t>3.630,00</t>
-  </si>
-  <si>
-    <t>120.000,00</t>
-  </si>
-  <si>
-    <t>150.000,00</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>16.242,20</t>
-  </si>
-  <si>
-    <t>6.486,00</t>
-  </si>
-  <si>
-    <t>50.750,00</t>
-  </si>
-  <si>
-    <t>371.931,83</t>
-  </si>
-  <si>
-    <t>30.181,40</t>
-  </si>
-  <si>
-    <t>3.932,40</t>
-  </si>
-  <si>
-    <t>102.175,68</t>
-  </si>
-  <si>
-    <t>8.680,00</t>
-  </si>
-  <si>
-    <t>9.950,00</t>
-  </si>
-  <si>
-    <t>1.406,06</t>
-  </si>
-  <si>
-    <t>10.753,00</t>
-  </si>
-  <si>
-    <t>43.200,00</t>
-  </si>
-  <si>
-    <t>11.078,91</t>
-  </si>
-  <si>
-    <t>2.940,00</t>
-  </si>
-  <si>
-    <t>9.350,00</t>
-  </si>
-  <si>
-    <t>790,00</t>
-  </si>
-  <si>
-    <t>1.560,00</t>
-  </si>
-  <si>
-    <t>2.999,50</t>
-  </si>
-  <si>
-    <t>1.099,06</t>
-  </si>
-  <si>
-    <t>720,00</t>
-  </si>
-  <si>
-    <t>133.694,34</t>
-  </si>
-  <si>
-    <t>44.038,14</t>
-  </si>
-  <si>
-    <t>4.439,75</t>
-  </si>
-  <si>
-    <t>30.072,00</t>
-  </si>
-  <si>
-    <t>137,40</t>
-  </si>
-  <si>
-    <t>796,50</t>
-  </si>
-  <si>
-    <t>45.519,00</t>
-  </si>
-  <si>
-    <t>373,14</t>
-  </si>
-  <si>
-    <t>7.335,00</t>
-  </si>
-  <si>
-    <t>10.299,56</t>
-  </si>
-  <si>
-    <t>320,00</t>
-  </si>
-  <si>
-    <t>15.808,74</t>
-  </si>
-  <si>
-    <t>1.458,12</t>
-  </si>
-  <si>
-    <t>1.805,00</t>
-  </si>
-  <si>
-    <t>850,00</t>
-  </si>
-  <si>
-    <t>6.289,00</t>
-  </si>
-  <si>
-    <t>42.752,46</t>
-  </si>
-  <si>
-    <t>426,00</t>
-  </si>
-  <si>
-    <t>3.768,55</t>
-  </si>
-  <si>
-    <t>295,00</t>
-  </si>
-  <si>
-    <t>1.013,71</t>
-  </si>
-  <si>
-    <t>158.080,00</t>
-  </si>
-  <si>
-    <t>35.867,40</t>
-  </si>
-  <si>
-    <t>3.226,51</t>
-  </si>
-  <si>
-    <t>6.284,53</t>
-  </si>
-  <si>
-    <t>5,72</t>
-  </si>
-  <si>
-    <t>386,00</t>
-  </si>
-  <si>
-    <t>28.147,88</t>
-  </si>
-  <si>
-    <t>2.697,00</t>
-  </si>
-  <si>
-    <t>164.163,02</t>
-  </si>
-  <si>
-    <t>4.590,00</t>
-  </si>
-  <si>
-    <t>2.068,70</t>
-  </si>
-  <si>
-    <t>18,00</t>
-  </si>
-  <si>
-    <t>114,80</t>
-  </si>
-  <si>
-    <t>2.457,75</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>326,00</t>
-  </si>
-  <si>
-    <t>6.850,00</t>
-  </si>
-  <si>
-    <t>54.720,00</t>
-  </si>
-  <si>
-    <t>3.446,01</t>
-  </si>
-  <si>
-    <t>38.058,38</t>
-  </si>
-  <si>
-    <t>3.002,00</t>
-  </si>
-  <si>
-    <t>104.115,00</t>
-  </si>
-  <si>
-    <t>3.122,06</t>
-  </si>
-  <si>
-    <t>8.310,55</t>
-  </si>
-  <si>
-    <t>975,00</t>
-  </si>
-  <si>
-    <t>110,00</t>
-  </si>
-  <si>
-    <t>6.008,00</t>
-  </si>
-  <si>
-    <t>3.680,00</t>
-  </si>
-  <si>
-    <t>165.018,95</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>520,00</t>
-  </si>
-  <si>
-    <t>30,30</t>
-  </si>
-  <si>
-    <t>5.110,00</t>
-  </si>
-  <si>
-    <t>4.740,00</t>
-  </si>
-  <si>
-    <t>1.256,00</t>
-  </si>
-  <si>
-    <t>149,35</t>
-  </si>
-  <si>
-    <t>2.654,00</t>
-  </si>
-  <si>
-    <t>47.713,00</t>
-  </si>
-  <si>
-    <t>5.847,00</t>
-  </si>
-  <si>
-    <t>4.015,00</t>
-  </si>
-  <si>
-    <t>748,00</t>
-  </si>
-  <si>
-    <t>7.227,37</t>
-  </si>
-  <si>
-    <t>1.810,00</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>1.517,00</t>
-  </si>
-  <si>
-    <t>7,50</t>
-  </si>
-  <si>
-    <t>7.280,00</t>
-  </si>
-  <si>
-    <t>12.020,00</t>
-  </si>
-  <si>
-    <t>46.244,38</t>
-  </si>
-  <si>
-    <t>1.155,00</t>
-  </si>
-  <si>
-    <t>4.480,00</t>
-  </si>
-  <si>
-    <t>289.935,82</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>135,00</t>
-  </si>
-  <si>
-    <t>25.090,41</t>
-  </si>
-  <si>
-    <t>123,83</t>
-  </si>
-  <si>
-    <t>780,00</t>
-  </si>
-  <si>
-    <t>267,00</t>
-  </si>
-  <si>
-    <t>1.440,00</t>
-  </si>
-  <si>
-    <t>167,20</t>
-  </si>
-  <si>
-    <t>185,00</t>
-  </si>
-  <si>
-    <t>21,18</t>
-  </si>
-  <si>
-    <t>35.199,00</t>
-  </si>
-  <si>
-    <t>10.896,00</t>
-  </si>
-  <si>
-    <t>25,56</t>
-  </si>
-  <si>
-    <t>3.600,00</t>
-  </si>
-  <si>
-    <t>490,00</t>
-  </si>
-  <si>
-    <t>2.361,00</t>
-  </si>
-  <si>
-    <t>115,56</t>
-  </si>
-  <si>
-    <t>11,50</t>
-  </si>
-  <si>
-    <t>141,00</t>
-  </si>
-  <si>
-    <t>181,60</t>
-  </si>
-  <si>
-    <t>23.284,56</t>
-  </si>
-  <si>
-    <t>2.104,50</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>8.042,39</t>
-  </si>
-  <si>
-    <t>3.490,52</t>
-  </si>
-  <si>
-    <t>571,03</t>
-  </si>
-  <si>
-    <t>67,60</t>
-  </si>
-  <si>
-    <t>75,55</t>
-  </si>
-  <si>
-    <t>9.800,00</t>
-  </si>
-  <si>
-    <t>23.888,00</t>
-  </si>
-  <si>
-    <t>140,00</t>
-  </si>
-  <si>
-    <t>80.000,00</t>
-  </si>
-  <si>
-    <t>28,46</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>1.130,00</t>
-  </si>
-  <si>
-    <t>35.346,00</t>
-  </si>
-  <si>
-    <t>2.584,00</t>
-  </si>
-  <si>
-    <t>590,00</t>
-  </si>
-  <si>
-    <t>5.500,00</t>
-  </si>
-  <si>
-    <t>1.585,00</t>
-  </si>
-  <si>
-    <t>3.200,00</t>
-  </si>
-  <si>
-    <t>6.650,00</t>
-  </si>
-  <si>
-    <t>6.748,16</t>
-  </si>
-  <si>
-    <t>740,60</t>
-  </si>
-  <si>
-    <t>3.353,02</t>
-  </si>
-  <si>
-    <t>3.072,00</t>
-  </si>
-  <si>
-    <t>191,00</t>
-  </si>
-  <si>
-    <t>841,50</t>
-  </si>
-  <si>
-    <t>1.053,00</t>
-  </si>
-  <si>
-    <t>5.950,45</t>
-  </si>
-  <si>
-    <t>1.976,40</t>
-  </si>
-  <si>
-    <t>242.668,00</t>
-  </si>
-  <si>
-    <t>28.479,66</t>
-  </si>
-  <si>
-    <t>2.300,00</t>
-  </si>
-  <si>
-    <t>3.300,00</t>
-  </si>
-  <si>
-    <t>7.260,00</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>6.497,40</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>4.855,00</t>
-  </si>
-  <si>
-    <t>2.150,00</t>
-  </si>
-  <si>
-    <t>9.700,00</t>
-  </si>
-  <si>
-    <t>350,00</t>
-  </si>
-  <si>
-    <t>425,00</t>
-  </si>
-  <si>
-    <t>565,00</t>
-  </si>
-  <si>
-    <t>8.180,00</t>
-  </si>
-  <si>
-    <t>7.420,00</t>
-  </si>
-  <si>
-    <t>28.840,80</t>
-  </si>
-  <si>
-    <t>278,68</t>
-  </si>
-  <si>
-    <t>770,00</t>
-  </si>
-  <si>
-    <t>8.420,90</t>
-  </si>
-  <si>
-    <t>5.510,00</t>
-  </si>
-  <si>
-    <t>1.430,00</t>
-  </si>
-  <si>
-    <t>265,72</t>
-  </si>
-  <si>
-    <t>25,00</t>
-  </si>
-  <si>
-    <t>6.128,64</t>
-  </si>
-  <si>
-    <t>4.390,59</t>
-  </si>
-  <si>
-    <t>380,00</t>
-  </si>
-  <si>
-    <t>3.196,90</t>
-  </si>
-  <si>
-    <t>1.010,64</t>
-  </si>
-  <si>
-    <t>22.432,00</t>
-  </si>
-  <si>
-    <t>1.697,07</t>
-  </si>
-  <si>
-    <t>302,93</t>
-  </si>
-  <si>
-    <t>18.439,50</t>
-  </si>
-  <si>
-    <t>55.471,82</t>
-  </si>
-  <si>
-    <t>5.580,00</t>
-  </si>
-  <si>
-    <t>2.760,00</t>
-  </si>
-  <si>
-    <t>169,90</t>
-  </si>
-  <si>
-    <t>2.481,51</t>
-  </si>
-  <si>
-    <t>183,60</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>254,07</t>
-  </si>
-  <si>
-    <t>486,14</t>
-  </si>
-  <si>
-    <t>422,00</t>
-  </si>
-  <si>
-    <t>642,00</t>
-  </si>
-  <si>
-    <t>13.630,00</t>
-  </si>
-  <si>
-    <t>4.898,00</t>
-  </si>
-  <si>
-    <t>8.649,00</t>
-  </si>
-  <si>
-    <t>67.210,00</t>
-  </si>
-  <si>
-    <t>863,40</t>
-  </si>
-  <si>
-    <t>119,76</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>26.668,40</t>
-  </si>
-  <si>
-    <t>714.184,52</t>
-  </si>
-  <si>
-    <t>417,05</t>
-  </si>
-  <si>
-    <t>1.480,00</t>
-  </si>
-  <si>
-    <t>1.380,00</t>
-  </si>
-  <si>
-    <t>75.000,00</t>
-  </si>
-  <si>
-    <t>223.000,00</t>
-  </si>
-  <si>
-    <t>24.750,00</t>
-  </si>
-  <si>
-    <t>4.623,25</t>
-  </si>
-  <si>
-    <t>29.100,00</t>
-  </si>
-  <si>
-    <t>48.700,00</t>
-  </si>
-  <si>
-    <t>23.333,00</t>
-  </si>
-  <si>
-    <t>330,00</t>
-  </si>
-  <si>
-    <t>80,00</t>
-  </si>
-  <si>
-    <t>78.180,00</t>
-  </si>
-  <si>
-    <t>265,93</t>
-  </si>
-  <si>
-    <t>60,00</t>
-  </si>
-  <si>
-    <t>936,00</t>
-  </si>
-  <si>
-    <t>1.117.000,00</t>
-  </si>
-  <si>
-    <t>179.900,00</t>
-  </si>
-  <si>
-    <t>759,00</t>
-  </si>
-  <si>
-    <t>47.990,00</t>
+    <t>2040.00</t>
+  </si>
+  <si>
+    <t>36000.00</t>
+  </si>
+  <si>
+    <t>3919875.00</t>
+  </si>
+  <si>
+    <t>116400.00</t>
+  </si>
+  <si>
+    <t>763860.00</t>
+  </si>
+  <si>
+    <t>162401.76</t>
+  </si>
+  <si>
+    <t>150040.00</t>
+  </si>
+  <si>
+    <t>3630.00</t>
+  </si>
+  <si>
+    <t>120000.00</t>
+  </si>
+  <si>
+    <t>150000.00</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>16242.20</t>
+  </si>
+  <si>
+    <t>6486.00</t>
+  </si>
+  <si>
+    <t>50750.00</t>
+  </si>
+  <si>
+    <t>371931.83</t>
+  </si>
+  <si>
+    <t>30181.40</t>
+  </si>
+  <si>
+    <t>3932.40</t>
+  </si>
+  <si>
+    <t>102175.68</t>
+  </si>
+  <si>
+    <t>8680.00</t>
+  </si>
+  <si>
+    <t>9950.00</t>
+  </si>
+  <si>
+    <t>1406.06</t>
+  </si>
+  <si>
+    <t>10753.00</t>
+  </si>
+  <si>
+    <t>43200.00</t>
+  </si>
+  <si>
+    <t>11078.91</t>
+  </si>
+  <si>
+    <t>2940.00</t>
+  </si>
+  <si>
+    <t>9350.00</t>
+  </si>
+  <si>
+    <t>790.00</t>
+  </si>
+  <si>
+    <t>1560.00</t>
+  </si>
+  <si>
+    <t>2999.50</t>
+  </si>
+  <si>
+    <t>1099.06</t>
+  </si>
+  <si>
+    <t>720.00</t>
+  </si>
+  <si>
+    <t>133694.34</t>
+  </si>
+  <si>
+    <t>44038.14</t>
+  </si>
+  <si>
+    <t>4439.75</t>
+  </si>
+  <si>
+    <t>30072.00</t>
+  </si>
+  <si>
+    <t>137.40</t>
+  </si>
+  <si>
+    <t>796.50</t>
+  </si>
+  <si>
+    <t>45519.00</t>
+  </si>
+  <si>
+    <t>373.14</t>
+  </si>
+  <si>
+    <t>7335.00</t>
+  </si>
+  <si>
+    <t>10299.56</t>
+  </si>
+  <si>
+    <t>320.00</t>
+  </si>
+  <si>
+    <t>15808.74</t>
+  </si>
+  <si>
+    <t>1458.12</t>
+  </si>
+  <si>
+    <t>1805.00</t>
+  </si>
+  <si>
+    <t>850.00</t>
+  </si>
+  <si>
+    <t>6289.00</t>
+  </si>
+  <si>
+    <t>42752.46</t>
+  </si>
+  <si>
+    <t>426.00</t>
+  </si>
+  <si>
+    <t>3768.55</t>
+  </si>
+  <si>
+    <t>295.00</t>
+  </si>
+  <si>
+    <t>1013.71</t>
+  </si>
+  <si>
+    <t>158080.00</t>
+  </si>
+  <si>
+    <t>35867.40</t>
+  </si>
+  <si>
+    <t>3226.51</t>
+  </si>
+  <si>
+    <t>6284.53</t>
+  </si>
+  <si>
+    <t>5.72</t>
+  </si>
+  <si>
+    <t>386.00</t>
+  </si>
+  <si>
+    <t>28147.88</t>
+  </si>
+  <si>
+    <t>2697.00</t>
+  </si>
+  <si>
+    <t>164163.02</t>
+  </si>
+  <si>
+    <t>4590.00</t>
+  </si>
+  <si>
+    <t>2068.70</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>114.80</t>
+  </si>
+  <si>
+    <t>2457.75</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>326.00</t>
+  </si>
+  <si>
+    <t>6850.00</t>
+  </si>
+  <si>
+    <t>54720.00</t>
+  </si>
+  <si>
+    <t>3446.01</t>
+  </si>
+  <si>
+    <t>38058.38</t>
+  </si>
+  <si>
+    <t>3002.00</t>
+  </si>
+  <si>
+    <t>104115.00</t>
+  </si>
+  <si>
+    <t>3122.06</t>
+  </si>
+  <si>
+    <t>8310.55</t>
+  </si>
+  <si>
+    <t>975.00</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>6008.00</t>
+  </si>
+  <si>
+    <t>3680.00</t>
+  </si>
+  <si>
+    <t>165018.95</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>520.00</t>
+  </si>
+  <si>
+    <t>30.30</t>
+  </si>
+  <si>
+    <t>5110.00</t>
+  </si>
+  <si>
+    <t>4740.00</t>
+  </si>
+  <si>
+    <t>1256.00</t>
+  </si>
+  <si>
+    <t>149.35</t>
+  </si>
+  <si>
+    <t>2654.00</t>
+  </si>
+  <si>
+    <t>47713.00</t>
+  </si>
+  <si>
+    <t>5847.00</t>
+  </si>
+  <si>
+    <t>4015.00</t>
+  </si>
+  <si>
+    <t>748.00</t>
+  </si>
+  <si>
+    <t>7227.37</t>
+  </si>
+  <si>
+    <t>1810.00</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>1517.00</t>
+  </si>
+  <si>
+    <t>7.50</t>
+  </si>
+  <si>
+    <t>7280.00</t>
+  </si>
+  <si>
+    <t>12020.00</t>
+  </si>
+  <si>
+    <t>46244.38</t>
+  </si>
+  <si>
+    <t>1155.00</t>
+  </si>
+  <si>
+    <t>4480.00</t>
+  </si>
+  <si>
+    <t>289935.82</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>25090.41</t>
+  </si>
+  <si>
+    <t>123.83</t>
+  </si>
+  <si>
+    <t>780.00</t>
+  </si>
+  <si>
+    <t>267.00</t>
+  </si>
+  <si>
+    <t>1440.00</t>
+  </si>
+  <si>
+    <t>167.20</t>
+  </si>
+  <si>
+    <t>185.00</t>
+  </si>
+  <si>
+    <t>21.18</t>
+  </si>
+  <si>
+    <t>35199.00</t>
+  </si>
+  <si>
+    <t>10896.00</t>
+  </si>
+  <si>
+    <t>25.56</t>
+  </si>
+  <si>
+    <t>3600.00</t>
+  </si>
+  <si>
+    <t>490.00</t>
+  </si>
+  <si>
+    <t>2361.00</t>
+  </si>
+  <si>
+    <t>115.56</t>
+  </si>
+  <si>
+    <t>11.50</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>181.60</t>
+  </si>
+  <si>
+    <t>23284.56</t>
+  </si>
+  <si>
+    <t>2104.50</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>8042.39</t>
+  </si>
+  <si>
+    <t>3490.52</t>
+  </si>
+  <si>
+    <t>571.03</t>
+  </si>
+  <si>
+    <t>67.60</t>
+  </si>
+  <si>
+    <t>75.55</t>
+  </si>
+  <si>
+    <t>9800.00</t>
+  </si>
+  <si>
+    <t>23888.00</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>80000.00</t>
+  </si>
+  <si>
+    <t>28.46</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>1130.00</t>
+  </si>
+  <si>
+    <t>35346.00</t>
+  </si>
+  <si>
+    <t>2584.00</t>
+  </si>
+  <si>
+    <t>590.00</t>
+  </si>
+  <si>
+    <t>5500.00</t>
+  </si>
+  <si>
+    <t>1585.00</t>
+  </si>
+  <si>
+    <t>3200.00</t>
+  </si>
+  <si>
+    <t>6650.00</t>
+  </si>
+  <si>
+    <t>6748.16</t>
+  </si>
+  <si>
+    <t>740.60</t>
+  </si>
+  <si>
+    <t>3353.02</t>
+  </si>
+  <si>
+    <t>3072.00</t>
+  </si>
+  <si>
+    <t>191.00</t>
+  </si>
+  <si>
+    <t>841.50</t>
+  </si>
+  <si>
+    <t>1053.00</t>
+  </si>
+  <si>
+    <t>5950.45</t>
+  </si>
+  <si>
+    <t>1976.40</t>
+  </si>
+  <si>
+    <t>242668.00</t>
+  </si>
+  <si>
+    <t>28479.66</t>
+  </si>
+  <si>
+    <t>2300.00</t>
+  </si>
+  <si>
+    <t>3300.00</t>
+  </si>
+  <si>
+    <t>7260.00</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>6497.40</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>4855.00</t>
+  </si>
+  <si>
+    <t>2150.00</t>
+  </si>
+  <si>
+    <t>9700.00</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>425.00</t>
+  </si>
+  <si>
+    <t>565.00</t>
+  </si>
+  <si>
+    <t>8180.00</t>
+  </si>
+  <si>
+    <t>7420.00</t>
+  </si>
+  <si>
+    <t>28840.80</t>
+  </si>
+  <si>
+    <t>278.68</t>
+  </si>
+  <si>
+    <t>770.00</t>
+  </si>
+  <si>
+    <t>8420.90</t>
+  </si>
+  <si>
+    <t>5510.00</t>
+  </si>
+  <si>
+    <t>1430.00</t>
+  </si>
+  <si>
+    <t>265.72</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>6128.64</t>
+  </si>
+  <si>
+    <t>4390.59</t>
+  </si>
+  <si>
+    <t>380.00</t>
+  </si>
+  <si>
+    <t>3196.90</t>
+  </si>
+  <si>
+    <t>1010.64</t>
+  </si>
+  <si>
+    <t>22432.00</t>
+  </si>
+  <si>
+    <t>1697.07</t>
+  </si>
+  <si>
+    <t>302.93</t>
+  </si>
+  <si>
+    <t>18439.50</t>
+  </si>
+  <si>
+    <t>55471.82</t>
+  </si>
+  <si>
+    <t>5580.00</t>
+  </si>
+  <si>
+    <t>2760.00</t>
+  </si>
+  <si>
+    <t>169.90</t>
+  </si>
+  <si>
+    <t>2481.51</t>
+  </si>
+  <si>
+    <t>183.60</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>254.07</t>
+  </si>
+  <si>
+    <t>486.14</t>
+  </si>
+  <si>
+    <t>422.00</t>
+  </si>
+  <si>
+    <t>642.00</t>
+  </si>
+  <si>
+    <t>13630.00</t>
+  </si>
+  <si>
+    <t>4898.00</t>
+  </si>
+  <si>
+    <t>8649.00</t>
+  </si>
+  <si>
+    <t>67210.00</t>
+  </si>
+  <si>
+    <t>863.40</t>
+  </si>
+  <si>
+    <t>119.76</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>26668.40</t>
+  </si>
+  <si>
+    <t>714184.52</t>
+  </si>
+  <si>
+    <t>417.05</t>
+  </si>
+  <si>
+    <t>1480.00</t>
+  </si>
+  <si>
+    <t>1380.00</t>
+  </si>
+  <si>
+    <t>75000.00</t>
+  </si>
+  <si>
+    <t>223000.00</t>
+  </si>
+  <si>
+    <t>24750.00</t>
+  </si>
+  <si>
+    <t>4623.25</t>
+  </si>
+  <si>
+    <t>29100.00</t>
+  </si>
+  <si>
+    <t>48700.00</t>
+  </si>
+  <si>
+    <t>23333.00</t>
+  </si>
+  <si>
+    <t>330.00</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>78180.00</t>
+  </si>
+  <si>
+    <t>265.93</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>936.00</t>
+  </si>
+  <si>
+    <t>1117000.00</t>
+  </si>
+  <si>
+    <t>179900.00</t>
+  </si>
+  <si>
+    <t>759.00</t>
+  </si>
+  <si>
+    <t>47990.00</t>
   </si>
 </sst>
 </file>
